--- a/2025-03-03_4o-mini_feedback_sheets/overall_gen/Musculoskeletal chest pain_gen_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_gen/Musculoskeletal chest pain_gen_overall.xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pain that worsens with movement or palpation of the chest wall</t>
+          <t>Pain worsens with movement or palpation</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This finding is highly indicative of musculoskeletal pain, as it suggests a localized source of pain related to muscle or joint involvement.</t>
+          <t>Musculoskeletal chest pain is often exacerbated by physical movement or direct pressure on the chest wall.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Presence of significant risk factors for cardiac disease</t>
+          <t>Pain associated with exertion</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Risk factors such as age, hypertension, or diabetes increase the likelihood of cardiac causes of chest pain, making musculoskeletal pain less likely.</t>
+          <t>Chest pain that occurs with exertion and is relieved by rest is more suggestive of cardiac causes like angina.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of recent physical activity or trauma</t>
+          <t>Recent physical activity or trauma</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Recent physical activity or trauma can lead to musculoskeletal injuries, making this a strong indicator of musculoskeletal chest pain.</t>
+          <t>A history of recent physical exertion or trauma can lead to musculoskeletal chest pain due to muscle strain or injury.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pain that is persistent and worsening over time</t>
+          <t>Pain radiating to the arm or jaw</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Persistent and worsening pain may indicate a more serious underlying condition rather than a benign musculoskeletal issue.</t>
+          <t>Radiating pain to the arm or jaw is more characteristic of cardiac chest pain.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sharp or stabbing pain that is reproducible</t>
+          <t>Localized pain</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Reproducible pain upon palpation or movement is characteristic of musculoskeletal pain rather than cardiac or pulmonary causes.</t>
+          <t>Pain that is localized to a specific area of the chest is more indicative of musculoskeletal origin.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Radiation of pain to the arm, jaw, or back</t>
+          <t>Associated symptoms like shortness of breath or diaphoresis</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Radiating pain is more commonly associated with cardiac issues, which would argue against a diagnosis of musculoskeletal chest pain.</t>
+          <t>The presence of symptoms such as shortness of breath or sweating is more indicative of a cardiac or pulmonary cause.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pain that improves with rest or changes in position</t>
+          <t>Pain relieved by rest</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Musculoskeletal pain often improves with rest or certain positions, contrasting with pain from cardiac issues which may not change with position.</t>
+          <t>Musculoskeletal pain often improves with rest, as opposed to cardiac pain which may not.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Accompanying gastrointestinal symptoms such as nausea or vomiting</t>
+          <t>Pain not reproducible by palpation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Gastrointestinal symptoms can indicate an underlying cardiac or gastrointestinal issue, making musculoskeletal pain less likely.</t>
+          <t>If the pain cannot be reproduced by pressing on the chest, it is less likely to be musculoskeletal.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>No associated symptoms such as shortness of breath or dizziness</t>
+          <t>Pain described as sharp or stabbing</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of systemic symptoms like shortness of breath or dizziness suggests a non-cardiac cause, supporting musculoskeletal pain.</t>
+          <t>Sharp or stabbing pain is more commonly associated with musculoskeletal issues rather than cardiac causes.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>History of similar episodes with different characteristics</t>
+          <t>Pain onset at rest</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A history of episodes that do not fit the typical pattern of musculoskeletal pain may suggest an alternative diagnosis.</t>
+          <t>Chest pain that begins at rest is less likely to be musculoskeletal and more likely to be cardiac or pulmonary.</t>
         </is>
       </c>
     </row>
@@ -613,110 +613,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>History of previous musculoskeletal injuries</t>
+          <t>History of trauma or injury to the chest wall</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Patients with a history of musculoskeletal injuries are more likely to experience musculoskeletal chest pain due to prior trauma or strain.</t>
+          <t>A history of trauma or injury to the chest wall is a common precursor to musculoskeletal chest pain, as it can lead to muscle strain or rib fractures.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>History of cardiovascular disease</t>
+          <t>History of coronary artery disease</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A history of cardiovascular disease is more commonly associated with cardiac chest pain, making musculoskeletal chest pain less likely.</t>
+          <t>Coronary artery disease is more likely to cause cardiac-related chest pain rather than musculoskeletal chest pain.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Current use of nonsteroidal anti-inflammatory drugs (NSAIDs)</t>
+          <t>Previous diagnosis of costochondritis</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The use of NSAIDs may indicate ongoing musculoskeletal pain, which supports the diagnosis of musculoskeletal chest pain.</t>
+          <t>Costochondritis, an inflammation of the cartilage connecting the ribs to the sternum, is a known cause of musculoskeletal chest pain.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Current medications for cardiac conditions</t>
+          <t>Previous myocardial infarction</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Medications for cardiac conditions suggest a higher likelihood of cardiac-related chest pain rather than musculoskeletal pain.</t>
+          <t>A history of myocardial infarction suggests a cardiac origin of chest pain, not musculoskeletal.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Previous diagnosis of costochondritis</t>
+          <t>Use of NSAIDs for pain relief</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Costochondritis is a common cause of musculoskeletal chest pain, and a prior diagnosis strongly supports the current diagnosis.</t>
+          <t>Nonsteroidal anti-inflammatory drugs (NSAIDs) are often used to treat musculoskeletal pain, suggesting a history of such pain.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Previous diagnosis of pulmonary conditions</t>
+          <t>Use of anticoagulants</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Pulmonary conditions can cause chest pain that mimics musculoskeletal pain, making it less likely that the pain is musculoskeletal in origin.</t>
+          <t>Anticoagulants are typically used for cardiovascular conditions, which may indicate a non-musculoskeletal cause of chest pain.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>History of repetitive physical activity or sports</t>
+          <t>History of fibromyalgia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Engagement in repetitive physical activities can lead to musculoskeletal strain, increasing the likelihood of musculoskeletal chest pain.</t>
+          <t>Fibromyalgia is associated with widespread musculoskeletal pain, including chest pain.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>History of gastrointestinal disorders</t>
+          <t>History of gastroesophageal reflux disease (GERD)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Gastrointestinal disorders can present with chest pain, which may be mistaken for musculoskeletal pain, thus reducing the likelihood of a musculoskeletal diagnosis.</t>
+          <t>GERD can cause chest pain that is often mistaken for cardiac or musculoskeletal pain, but it is not musculoskeletal in origin.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Past surgical history of thoracic surgery</t>
+          <t>Previous episodes of musculoskeletal pain</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Thoracic surgery can lead to musculoskeletal pain in the chest area, supporting the diagnosis of musculoskeletal chest pain.</t>
+          <t>A history of musculoskeletal pain episodes increases the likelihood of current musculoskeletal chest pain.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No history of trauma or injury</t>
+          <t>History of pulmonary embolism</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Absence of trauma or injury reduces the likelihood of musculoskeletal chest pain, as such pain is often associated with physical strain.</t>
+          <t>Pulmonary embolism can cause chest pain that is not musculoskeletal in nature.</t>
         </is>
       </c>
     </row>
@@ -764,110 +764,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Engagement in high-impact sports or physical activities</t>
+          <t>Engagement in physical activities or sports</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Individuals who participate in high-impact sports are more likely to experience musculoskeletal injuries, which can lead to chest pain.</t>
+          <t>Participation in physical activities or sports can lead to muscle strain or injury, which is a common cause of musculoskeletal chest pain.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Non-smoker status</t>
+          <t>Sedentary lifestyle</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Non-smokers are less likely to experience chest pain related to cardiovascular issues, which can be confused with musculoskeletal pain.</t>
+          <t>A sedentary lifestyle is less likely to cause musculoskeletal chest pain, which is often related to physical activity or strain.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of previous musculoskeletal injuries</t>
+          <t>Recent history of heavy lifting</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A prior history of musculoskeletal injuries increases the likelihood of experiencing similar pain in the chest area.</t>
+          <t>Heavy lifting can strain the chest muscles, leading to musculoskeletal chest pain.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No family history of cardiovascular disease</t>
+          <t>No history of physical trauma or strain</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A lack of family history of cardiovascular disease reduces the likelihood of chest pain being related to cardiac issues rather than musculoskeletal causes.</t>
+          <t>Without a history of physical trauma or strain, the likelihood of musculoskeletal chest pain decreases.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Family history of musculoskeletal disorders</t>
+          <t>Occupation involving repetitive upper body movements</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A genetic predisposition to musculoskeletal disorders can increase the risk of developing musculoskeletal chest pain.</t>
+          <t>Jobs that require repetitive use of the upper body can lead to muscle strain, increasing the likelihood of musculoskeletal chest pain.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Regular participation in low-impact exercise</t>
+          <t>Family history of cardiac conditions</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Engaging in regular low-impact exercise is less likely to lead to musculoskeletal injuries compared to high-impact activities.</t>
+          <t>A family history of cardiac conditions may suggest a non-musculoskeletal cause for chest pain.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Occupation involving repetitive upper body movements</t>
+          <t>Family history of musculoskeletal disorders</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jobs that require repetitive upper body movements can lead to strain and pain in the chest muscles.</t>
+          <t>A family history of musculoskeletal disorders may predispose individuals to similar conditions, including musculoskeletal chest pain.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No history of chronic pain conditions</t>
+          <t>Non-participation in physical activities</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Absence of chronic pain conditions suggests a lower likelihood of developing musculoskeletal chest pain.</t>
+          <t>Not engaging in physical activities reduces the risk of muscle strain, which is a common cause of musculoskeletal chest pain.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sedentary lifestyle with sudden increase in physical activity</t>
+          <t>Participation in contact sports</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A sudden increase in physical activity after a sedentary lifestyle can lead to musculoskeletal pain, including in the chest.</t>
+          <t>Contact sports can result in trauma or strain to the chest area, which is a risk factor for musculoskeletal chest pain.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Healthy body weight and BMI</t>
+          <t>Occupation with minimal physical exertion</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Maintaining a healthy body weight reduces the risk of musculoskeletal strain and associated pain.</t>
+          <t>Jobs that require minimal physical exertion are less likely to cause musculoskeletal chest pain.</t>
         </is>
       </c>
     </row>
@@ -915,110 +915,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Localized tenderness on palpation of the chest wall</t>
+          <t>Reproducible chest pain on palpation</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This finding is highly specific for musculoskeletal pain, as it indicates that the pain is likely originating from the muscles or bones rather than from cardiac or pulmonary sources.</t>
+          <t>Pain that can be reproduced by pressing on the chest wall is highly suggestive of musculoskeletal origin, as it indicates the pain is likely related to the muscles or bones rather than internal organs.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Presence of significant shortness of breath</t>
+          <t>Presence of abnormal heart sounds</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Shortness of breath is more commonly associated with cardiac or pulmonary conditions, which would argue against a musculoskeletal cause of chest pain.</t>
+          <t>Abnormal heart sounds may indicate a cardiac cause of chest pain, which would argue against a musculoskeletal origin.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pain exacerbated by movement or palpation</t>
+          <t>Localized tenderness over the costochondral junctions</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Musculoskeletal chest pain typically worsens with certain movements or pressure, which helps differentiate it from other causes of chest pain.</t>
+          <t>Tenderness specifically over the costochondral junctions is a classic sign of costochondritis, a common form of musculoskeletal chest pain.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Abnormal heart sounds or murmurs</t>
+          <t>Signs of respiratory distress</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The presence of abnormal heart sounds may indicate underlying cardiac issues, which would be inconsistent with a diagnosis of musculoskeletal chest pain.</t>
+          <t>Respiratory distress is more commonly associated with pulmonary or cardiac issues rather than musculoskeletal pain.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Normal vital signs</t>
+          <t>Absence of respiratory distress</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Stable vital signs suggest that there is no acute cardiac or respiratory distress, which supports a musculoskeletal origin of the pain.</t>
+          <t>Musculoskeletal chest pain typically does not cause respiratory distress, which is more indicative of cardiac or pulmonary issues.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Elevated blood pressure or heart rate</t>
+          <t>Pain not reproducible on palpation</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Elevated vital signs can indicate stress or a cardiac event, which would suggest that the chest pain is not musculoskeletal in origin.</t>
+          <t>If chest pain cannot be reproduced by palpation, it is less likely to be musculoskeletal in origin.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Absence of respiratory distress</t>
+          <t>Normal heart sounds</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The lack of respiratory distress indicates that the pain is not likely due to a pulmonary issue, which is often associated with more severe conditions.</t>
+          <t>Normal heart sounds suggest that the chest pain is not cardiac in origin, supporting a musculoskeletal cause.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Signs of trauma or injury</t>
+          <t>Radiating pain to the arm or jaw</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>While trauma can cause musculoskeletal pain, the presence of significant trauma may suggest other serious injuries that need to be ruled out.</t>
+          <t>Radiating pain is more typical of cardiac issues, such as angina, rather than musculoskeletal pain.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>No signs of systemic illness (e.g., fever, chills)</t>
+          <t>Pain worsens with specific movements</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of systemic symptoms suggests that the pain is not due to an infectious or inflammatory process, which supports a musculoskeletal diagnosis.</t>
+          <t>Pain that increases with certain movements or positions is characteristic of musculoskeletal pain, as it suggests involvement of muscles or joints.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Wheezing or abnormal lung sounds</t>
+          <t>Presence of fever</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>These findings are indicative of respiratory issues, which would argue against a musculoskeletal cause of chest pain.</t>
+          <t>Fever may suggest an infectious or inflammatory process, which is less likely to be associated with musculoskeletal chest pain.</t>
         </is>
       </c>
     </row>
@@ -1066,110 +1066,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Positive physical examination findings for musculoskeletal tenderness</t>
+          <t>Normal ECG</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tenderness upon palpation of the chest wall is a common finding in musculoskeletal chest pain, indicating localized pain that is reproducible.</t>
+          <t>A normal ECG (Electrocardiogram) suggests that the chest pain is less likely to be cardiac in origin, supporting a musculoskeletal cause.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Abnormal ECG findings</t>
+          <t>Abnormal ECG</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Abnormalities on an ECG may indicate cardiac issues, which would argue against a diagnosis of musculoskeletal chest pain.</t>
+          <t>An abnormal ECG may indicate cardiac issues, which argues against a purely musculoskeletal cause of chest pain.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Normal electrocardiogram (ECG)</t>
+          <t>Normal cardiac enzymes</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A normal ECG reduces the likelihood of cardiac causes of chest pain, supporting the diagnosis of musculoskeletal pain.</t>
+          <t>Normal levels of cardiac enzymes indicate that there is no myocardial damage, which supports a non-cardiac, possibly musculoskeletal cause of chest pain.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Elevated cardiac biomarkers</t>
+          <t>Elevated cardiac enzymes</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Elevated levels of cardiac enzymes suggest myocardial injury, making musculoskeletal chest pain less likely.</t>
+          <t>Elevated cardiac enzymes suggest myocardial damage, which is inconsistent with a musculoskeletal cause.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Negative cardiac biomarkers</t>
+          <t>Negative D-dimer</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Negative results for cardiac enzymes such as troponin suggest that there is no myocardial injury, which supports a musculoskeletal origin of chest pain.</t>
+          <t>A negative D-dimer test reduces the likelihood of pulmonary embolism, supporting a musculoskeletal cause for chest pain.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Imaging showing pulmonary embolism or aortic dissection</t>
+          <t>Positive D-dimer</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Imaging that reveals serious conditions like pulmonary embolism or aortic dissection would indicate that the chest pain is not musculoskeletal.</t>
+          <t>A positive D-dimer test suggests the possibility of a thrombotic event, which is not consistent with musculoskeletal chest pain.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Imaging showing no significant abnormalities in the chest structures</t>
+          <t>Normal chest X-ray</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Imaging studies (like X-rays) that show no fractures or other abnormalities can indicate that the pain is likely musculoskeletal rather than due to a serious underlying condition.</t>
+          <t>A normal chest X-ray rules out many pulmonary and cardiac conditions, making a musculoskeletal cause more likely.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Presence of pleuritic pain on examination</t>
+          <t>Abnormal chest X-ray</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Pleuritic pain suggests a respiratory or pleural cause rather than musculoskeletal pain, which typically does not present with pleuritic characteristics.</t>
+          <t>An abnormal chest X-ray may indicate pulmonary or cardiac pathology, which argues against a musculoskeletal cause.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Positive response to musculoskeletal pain management strategies</t>
+          <t>Negative troponin</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>If the patient shows improvement with treatments such as NSAIDs or physical therapy, it supports the diagnosis of musculoskeletal chest pain.</t>
+          <t>Negative troponin levels suggest no acute coronary syndrome, supporting a musculoskeletal origin of chest pain.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Signs of systemic illness (e.g., fever, elevated white blood cell count)</t>
+          <t>Positive troponin</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Systemic signs may indicate an infectious or inflammatory process, which would argue against a diagnosis of isolated musculoskeletal chest pain.</t>
+          <t>Positive troponin levels indicate myocardial injury, which is not consistent with musculoskeletal chest pain.</t>
         </is>
       </c>
     </row>
